--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9060"/>
+    <workbookView windowWidth="20325" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,12 +1013,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="48.3893805309735" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11955"/>
+    <workbookView windowWidth="22650" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1013,7 +1011,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1071,38 +1069,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22650" windowHeight="6990"/>
+    <workbookView windowWidth="22650" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="maintain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>user</t>
   </si>
@@ -41,6 +42,48 @@
   </si>
   <si>
     <t>{"code": 1, "msg": "账号或者密码不正确"}</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>登录-发送验证码</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://store.test.dstcar.com/dst-partner-apis/api-store/public/verifyCode</t>
+  </si>
+  <si>
+    <t>{"phone": "15070720246"}</t>
+  </si>
+  <si>
+    <t>code200即可</t>
+  </si>
+  <si>
+    <t>通过验证码进行登录</t>
+  </si>
+  <si>
+    <t>http://store.test.dstcar.com/dst-partner-apis/api-store/public/login</t>
+  </si>
+  <si>
+    <t>{"phone": "15070720246", "verifyCode": "999999"}</t>
+  </si>
+  <si>
+    <t>获取当前登录的门店信息</t>
   </si>
 </sst>
 </file>
@@ -62,6 +105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -85,14 +136,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,19 +569,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,13 +614,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -589,10 +632,10 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -607,58 +650,64 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1069,4 +1118,102 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="39.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://store.test.dstcar.com/dst-partner-apis/api-store/public/verifyCode"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://store.test.dstcar.com/dst-partner-apis/api-store/public/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://store.test.dstcar.com/dst-partner-apis/api-store/public/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22650" windowHeight="6990" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="maintain" sheetId="2" r:id="rId2"/>
+    <sheet name="maintainself" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -71,7 +71,7 @@
     <t>{"phone": "15070720246"}</t>
   </si>
   <si>
-    <t>code200即可</t>
+    <t>{"code": "200"}</t>
   </si>
   <si>
     <t>通过验证码进行登录</t>
@@ -1065,8 +1065,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="19.2477876106195" customWidth="1"/>
+    <col min="3" max="3" width="49.7522123893805" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1126,16 +1126,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.8761061946903" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="39.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6283185840708" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1238938053097" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.2477876106195" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
